--- a/FileNames/20-MW-QCD-006 Internal Audit PM.xlsx
+++ b/FileNames/20-MW-QCD-006 Internal Audit PM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Google Drive\QMS-Updated Names\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -1413,6 +1418,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1460,7 +1468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,7 +1503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1706,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4820,7 +4828,7 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LMW-QCD-006&amp;CRevision Date: 10-29-14 C&amp;R&amp;P</oddFooter>
+    <oddFooter>&amp;LMW-QCD-006&amp;C Revision Date: 10-29-14 C &amp;R&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
